--- a/Text/Giessmann_Alina.xlsx
+++ b/Text/Giessmann_Alina.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>Timecode</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Pro Bild / for each image</t>
   </si>
   <si>
-    <t>Die Adaption von "2001: A Space Odyssey" von Stanley Kubrick präsentiert eine faszinierende Neuinterpretation des zeitlosen Klassikers in einem Universum aus bionischen Strukturen und honigwabenähnlichen Gebilden.</t>
+    <t>Die Adaption des Films "2001: A Space Odyssey" von Stanley Kubrick präsentiert eine faszinierende Neuinterpretation des zeitlosen Klassikers in einem Universum aus bionischen Strukturen und honigwabenähnlichen Gebilden.</t>
   </si>
   <si>
     <t>Adaption</t>
@@ -216,6 +216,30 @@
   </si>
   <si>
     <t>honeycomb, outside, "Generate an image of the Discovery One from the film '2001: A Space Odyssey,' with a creative twist. Transform the spacecraft's structure into a honeycomb pattern, incorporating curved lines reminiscent of organic shapes. Envision a fusion of futuristic technology with the natural elegance of honeycomb structures, resulting in a visually captivating reinterpretation of the iconic spaceship."</t>
+  </si>
+  <si>
+    <t>Mond Monolith</t>
+  </si>
+  <si>
+    <t>monolith, "Generate an image depicting the iconic moon scene from 2001: A Space Odyssey, where the research station discovers the Monolith. Reimagine the lunar landscape with honeycomb-like structures and flowing, curved lines. Create a scene that captures the mysterious essence of the Monolith discovery by transforming the lunar environment into an intricate tapestry of organic honeycomb patterns and elegant curves. Infuse a sense of wonder and intrigue into the visual representation of this iconic moment on the moon."</t>
+  </si>
+  <si>
+    <t>Steuerzentrale HAL9000</t>
+  </si>
+  <si>
+    <t>chairs, honeycomb structure, Organic forms, Curved lines, white/ beige wall, organic architecture, Asymmetry, Natural forms, Whiplash curves, Aesthetic movement, organic rooms, Biomimicry,  out of Space, dynamic lighting, ultra high definition, reflections, sharp focus, intense shadows, detailed and intricate environment, intricate</t>
+  </si>
+  <si>
+    <t>Eva Pod</t>
+  </si>
+  <si>
+    <t>warm light, Organic forms, Curved lines, honeycomb structure, white/ beige wall, organic architecture, Asymmetry, Natural forms, Whiplash curves, Aesthetic movement, organic rooms, Biomimicry,  out of Space, dynamic lighting, ultra high definition, reflections, sharp focus, intense shadows, detailed and intricate environment, intricate</t>
+  </si>
+  <si>
+    <t>Psychedelisch reise</t>
+  </si>
+  <si>
+    <t>vibrated, shining light, honeycomb structure, curved lines, organic forms, Biomimicry, photorealistic, Generate a scene inspired by the psychedelic sequence between the third and fourth chapters of 2001: A Space Odyssey. In this rendition, transform the vibrant psychedelic lights into colorful honeycomb-like structures with organic, curved patterns. Create a surreal and mesmerizing atmosphere by replacing the original lights with these imaginative, swirling designs.</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1540,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1981,6 +2005,78 @@
       </c>
       <c r="F25" s="12"/>
     </row>
+    <row r="26" ht="14.7" customHeight="1">
+      <c r="A26" s="10">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s" s="11">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s" s="13">
+        <v>62</v>
+      </c>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" ht="14.7" customHeight="1">
+      <c r="A27" s="10">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s" s="13">
+        <v>64</v>
+      </c>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" ht="14.7" customHeight="1">
+      <c r="A28" s="10">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s" s="11">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s" s="13">
+        <v>66</v>
+      </c>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" ht="14.7" customHeight="1">
+      <c r="A29" s="10">
+        <v>124</v>
+      </c>
+      <c r="B29" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s" s="11">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s" s="13">
+        <v>68</v>
+      </c>
+      <c r="F29" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
